--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>AHMED SOLTAN</x:t>
   </x:si>
   <x:si>
-    <x:t>4230141</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود فريد على</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mahmoud Fared Ali</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240207</x:t>
   </x:si>
   <x:si>
@@ -132,15 +123,6 @@
     <x:t>Aya Atef Mohamed Saad Salem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه عبدالناصر محمد النبوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aya Abdel nasser Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240212</x:t>
   </x:si>
   <x:si>
@@ -150,15 +132,6 @@
     <x:t>Tasnim Osama Mohamed Abdelfatah Othman</x:t>
   </x:si>
   <x:si>
-    <x:t>4240015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد مصطفى محمد عبدالرحمن بيومى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled Mostafa Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4210190</x:t>
   </x:si>
   <x:si>
@@ -204,15 +177,6 @@
     <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
   </x:si>
   <x:si>
-    <x:t>4240024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن حاتم مغاورى عوض عمران</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Abdelrahman Hatem Maghawry awad Omran </x:t>
-  </x:si>
-  <x:si>
     <x:t>4240027</x:t>
   </x:si>
   <x:si>
@@ -222,15 +186,6 @@
     <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
-    <x:t>1240089</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله عادل احمد حسن ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdullah Adel Ahmed Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240239</x:t>
   </x:si>
   <x:si>
@@ -325,6 +280,15 @@
   </x:si>
   <x:si>
     <x:t>Nour eldeen Mostafa Ahmed Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240387</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هيثم عبدالله امير الجيش محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> Haytham Abdullah Amir El Gesh Mohamad</x:t>
   </x:si>
   <x:si>
     <x:t>1240394</x:t>
@@ -467,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -954,7 +918,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4164195255</x:v>
+        <x:v>45915.620112581</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -986,7 +950,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45915.620112581</x:v>
+        <x:v>45907.6942217245</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1018,7 +982,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6942217245</x:v>
+        <x:v>45915.6164553241</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1050,7 +1014,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.6164553241</x:v>
+        <x:v>45909.4236177431</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1082,7 +1046,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4236177431</x:v>
+        <x:v>45915.619378206</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1114,7 +1078,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.619378206</x:v>
+        <x:v>45915.6165782755</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1146,7 +1110,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.6165782755</x:v>
+        <x:v>45907.6653037037</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1178,7 +1142,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6653037037</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1210,7 +1174,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4869801736</x:v>
+        <x:v>45906.4145669329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1242,7 +1206,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45915.6199881944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1274,7 +1238,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.8126204861</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1306,7 +1270,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4145669329</x:v>
+        <x:v>45915.6166472222</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1338,7 +1302,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.6199881944</x:v>
+        <x:v>45915.6194258102</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1370,7 +1334,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45921.9008771991</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1402,7 +1366,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.6166472222</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1430,11 +1394,9 @@
       <x:c r="C20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45915.6194258102</x:v>
+        <x:v>45907.709487581</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1457,16 +1419,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6758913542</x:v>
+        <x:v>45908.4169185995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1489,16 +1451,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6663850694</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1521,16 +1483,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.5243351505</x:v>
+        <x:v>45915.6195212616</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1553,16 +1515,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1585,14 +1547,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45907.709487581</x:v>
+        <x:v>45908.4159938657</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1624,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4169185995</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1656,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1688,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6195212616</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1720,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1752,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4159938657</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1784,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1816,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1848,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1866,134 +1830,6 @@
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
     </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45915.615550463</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
-    </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45908.4155164352</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45915.6202093403</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45908.4154790856</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -2006,9 +1842,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Writing and Presentation Skills (GENS005) Location : [20102]20102-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -132,6 +132,15 @@
     <x:t>Tasnim Osama Mohamed Abdelfatah Othman</x:t>
   </x:si>
   <x:si>
+    <x:t>1230029</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حسن أشرف محمد أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hassan Ashraf Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>4210190</x:t>
   </x:si>
   <x:si>
@@ -141,15 +150,6 @@
     <x:t>Khaled Waleed Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا ايمن وفائي محمد عيسى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Ayman Wafaey</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240060</x:t>
   </x:si>
   <x:si>
@@ -219,15 +219,6 @@
     <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
   </x:si>
   <x:si>
-    <x:t>1230101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حاتم محمد سراج الدين حسن شاهين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Hatem Mohamed Serag Eldin Hassan Shaheen</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240136</x:t>
   </x:si>
   <x:si>
@@ -237,6 +228,15 @@
     <x:t>Mohamed hassan</x:t>
   </x:si>
   <x:si>
+    <x:t>1240364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود احمد محمد كمال الدين منصور  بلاسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Ahmed Mohammed Kamal Eldin</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240265</x:t>
   </x:si>
   <x:si>
@@ -244,6 +244,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Tamer Abdel Maguid Mohamed Negm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان محمد فراج على محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Mohamed Farag Ali Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240267</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -740,7 +749,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.360625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1078,7 +1087,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.6165782755</x:v>
+        <x:v>45927.5351134606</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145669329</x:v>
+        <x:v>45927.3075350694</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.6199881944</x:v>
+        <x:v>45906.4145669329</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.6195212616</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.615550463</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.6202093403</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4240027</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد مصباح عبدالسلام عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohamed Misbah abdelsalam Abdou</x:t>
   </x:si>
   <x:si>
     <x:t>1240239</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -749,7 +740,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.730625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.820625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1343,7 +1334,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.9008771991</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1371,11 +1362,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.709487581</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1398,14 +1387,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.709487581</x:v>
+        <x:v>45908.4169185995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4169185995</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4523928241</x:v>
+        <x:v>45908.4159938657</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4159938657</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.615550463</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.6202093403</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45908.4154790856</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Aya Atef Mohamed Saad Salem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه عبدالناصر محمد النبوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aya Abdel nasser Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1240212</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1142,7 +1151,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.414993669</x:v>
+        <x:v>45929.3724578356</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.3075350694</x:v>
+        <x:v>45908.414993669</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4145669329</x:v>
+        <x:v>45927.3075350694</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651071412</x:v>
+        <x:v>45906.4145669329</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.6166472222</x:v>
+        <x:v>45907.6651071412</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.6194258102</x:v>
+        <x:v>45915.6166472222</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45915.6194258102</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1362,9 +1371,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.709487581</x:v>
+        <x:v>45908.4149502315</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,16 +1398,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45908.4169185995</x:v>
+        <x:v>45907.709487581</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1428,7 +1437,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45908.4169185995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1460,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4523928241</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4159938657</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45908.4159938657</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.615550463</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.6202093403</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Abd Allah Ehab Kamal Eldin Abd Elsalam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على أحمد نبيل المازنى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aly Ahmed Nabil El Mazny</x:t>
   </x:si>
   <x:si>
     <x:t>1240197</x:t>
@@ -440,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1371,11 +1362,9 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
+      <x:c r="D19" s="2" t="s"/>
       <x:c r="E19" s="3">
-        <x:v>45908.4149502315</x:v>
+        <x:v>45907.709487581</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1398,14 +1387,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45907.709487581</x:v>
+        <x:v>45908.4169185995</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4169185995</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4523928241</x:v>
+        <x:v>45908.4159938657</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4159938657</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.615550463</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.6202093403</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1838,38 +1829,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45908.4154790856</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -208,6 +208,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حاتم محمد سراج الدين حسن شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Hatem Mohamed Serag Eldin Hassan Shaheen</x:t>
   </x:si>
   <x:si>
     <x:t>1240136</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -740,7 +749,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.820625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="50.360625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1460,7 +1469,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45933.7233040509</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1492,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.4523928241</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1524,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4159938657</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1556,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45908.4159938657</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1588,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1620,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1652,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1684,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.615550463</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45915.6202093403</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Zyad Ahmed mohamed Almoghazy makhlouf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد علاء كمال احمد عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zyad Alaa Kamal Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240232</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1343,7 +1352,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.6194258102</x:v>
+        <x:v>45935.4922486921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1371,9 +1380,11 @@
       <x:c r="C19" s="2" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="D19" s="2" t="s"/>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.709487581</x:v>
+        <x:v>45915.6194258102</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1396,16 +1407,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
+      <x:c r="D20" s="2" t="s"/>
       <x:c r="E20" s="3">
-        <x:v>45908.4169185995</x:v>
+        <x:v>45907.709487581</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1437,7 +1446,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45908.4169185995</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1469,7 +1478,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45933.7233040509</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1501,7 +1510,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45933.7233040509</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1533,7 +1542,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.4523928241</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1565,7 +1574,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4159938657</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1597,7 +1606,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45908.4159938657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.615550463</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45915.6202093403</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4154790856</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45908.4154790856</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Writing and Presentation Skills (GENS005) Location : [20102]20102-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/GENS005_Lecture-35029.xlsx
+++ b/downloaded_files/GENS005_Lecture-35029.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -217,15 +217,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Mostafa Mohamed El Faham</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حاتم محمد سراج الدين حسن شاهين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Hatem Mohamed Serag Eldin Hassan Shaheen</x:t>
   </x:si>
   <x:si>
     <x:t>1240136</x:t>
@@ -449,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -758,7 +749,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="50.360625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.820625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1510,7 +1501,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45933.7233040509</x:v>
+        <x:v>45908.41545625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.41545625</x:v>
+        <x:v>45927.4523928241</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.4523928241</x:v>
+        <x:v>45908.4159938657</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4159938657</x:v>
+        <x:v>45927.5715227199</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.5715227199</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45915.6174896181</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45915.6174896181</x:v>
+        <x:v>45908.4150209491</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4150209491</x:v>
+        <x:v>45915.615550463</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.615550463</x:v>
+        <x:v>45921.9125798611</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.9125798611</x:v>
+        <x:v>45908.4155164352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4155164352</x:v>
+        <x:v>45915.6202093403</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.6202093403</x:v>
+        <x:v>45908.4154790856</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1880,38 +1871,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45908.4154790856</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1924,9 +1883,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Writing and Presentation Skills (GENS005) Location : [20102]20102-45-الجيزة الرئيسي Time : Tuesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>
